--- a/VisualFormatters/focus_formatter.xlsx
+++ b/VisualFormatters/focus_formatter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan_losee\Documents\PJI\MetricReporter\VisualFormatters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7A4FBC-2870-4040-8DBF-FB756AF5E318}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C98BB5-F496-4667-B129-D524360300D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="57">
   <si>
     <t>Test Duration</t>
   </si>
@@ -178,9 +178,6 @@
     <t>SERVER -&gt; PROFANITY_QA</t>
   </si>
   <si>
-    <t>ALERT</t>
-  </si>
-  <si>
     <t>Improved</t>
   </si>
   <si>
@@ -190,7 +187,10 @@
     <t>ProductModifications/ProductBuilders</t>
   </si>
   <si>
-    <t>25-AUG-2020 13:00 - 15:20</t>
+    <t>18-SEP-2020 10:15 - 11:15</t>
+  </si>
+  <si>
+    <t>WARNING</t>
   </si>
 </sst>
 </file>
@@ -200,7 +200,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +358,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -869,7 +876,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -880,37 +887,12 @@
     <xf numFmtId="164" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -920,18 +902,12 @@
     <xf numFmtId="164" fontId="21" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="38" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -971,15 +947,6 @@
     <xf numFmtId="0" fontId="19" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1014,8 +981,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1026,8 +991,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="21" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="36" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="36" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="36" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="21" fillId="36" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="21" fillId="36" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="21" fillId="36" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="21" fillId="36" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1385,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M55" sqref="A4:M55"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,167 +1404,206 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="11">
         <v>22</v>
       </c>
-      <c r="C7" s="22">
-        <v>1</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="18">
-        <v>25</v>
-      </c>
-      <c r="F7" s="18">
-        <v>3</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="42">
+        <v>22</v>
+      </c>
+      <c r="F7" s="42">
+        <v>0</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5">
-        <v>16</v>
-      </c>
-      <c r="F8" s="5">
-        <v>2</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="E8" s="47">
+        <v>14</v>
+      </c>
+      <c r="F8" s="47">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="4">
-        <v>84</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="E9" s="40">
+        <v>81</v>
+      </c>
+      <c r="F9" s="40">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1572,55 +1613,55 @@
         <v>4</v>
       </c>
       <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="40">
         <v>3</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="4">
-        <v>3</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="F10" s="40">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="4">
-        <v>25</v>
-      </c>
-      <c r="F11" s="4">
-        <v>7</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="E11" s="40">
+        <v>22</v>
+      </c>
+      <c r="F11" s="40">
+        <v>-19</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1635,361 +1676,361 @@
       <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="40">
         <v>1</v>
       </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="F12" s="40">
+        <v>0</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="15">
-        <v>55</v>
-      </c>
-      <c r="C13" s="15">
+      <c r="B13" s="6">
+        <v>38</v>
+      </c>
+      <c r="C13" s="6">
+        <v>-14</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="41">
+        <v>29</v>
+      </c>
+      <c r="F13" s="41">
+        <v>-2</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="32">
         <v>8</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="13">
-        <v>25</v>
-      </c>
-      <c r="F13" s="13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="46">
-        <v>8</v>
-      </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49">
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35">
         <v>1</v>
       </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="3">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C16" s="3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="4">
-        <v>64</v>
-      </c>
-      <c r="F16" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="E16" s="40">
+        <v>62</v>
+      </c>
+      <c r="F16" s="40">
+        <v>-3</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="52">
+      <c r="B17" s="36">
         <v>2000</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55">
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39">
         <v>8000</v>
       </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C18" s="3">
-        <v>-2</v>
+        <v>-9</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="4">
-        <v>54</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="E18" s="40">
+        <v>51</v>
+      </c>
+      <c r="F18" s="40">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C19" s="3">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="4">
-        <v>148</v>
-      </c>
-      <c r="F19" s="4">
-        <v>91</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
+      <c r="E19" s="40">
+        <v>49</v>
+      </c>
+      <c r="F19" s="40">
+        <v>-10</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="4">
-        <v>22</v>
-      </c>
-      <c r="F20" s="4">
-        <v>3</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="E20" s="40">
+        <v>18</v>
+      </c>
+      <c r="F20" s="40">
+        <v>-3</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>1207</v>
+        <v>1170</v>
       </c>
       <c r="C21" s="3">
-        <v>65</v>
+        <v>-1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1675</v>
-      </c>
-      <c r="F21" s="4">
-        <v>234</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="E21" s="40">
+        <v>1300</v>
+      </c>
+      <c r="F21" s="40">
+        <v>-223</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>2.0099999999999998</v>
+        <v>1.95</v>
       </c>
       <c r="C22" s="3">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="4">
-        <v>2.79</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0.39</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="40">
+        <v>2.17</v>
+      </c>
+      <c r="F22" s="40">
+        <v>-0.37</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="3">
-        <v>2707</v>
+        <v>2439</v>
       </c>
       <c r="C26" s="3">
-        <v>184</v>
+        <v>-173</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -1999,223 +2040,223 @@
         <v>6</v>
       </c>
       <c r="C27" s="3">
-        <v>-594</v>
+        <v>0</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="3">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="C28" s="3">
-        <v>-23.56</v>
+        <v>-0.23</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B32" s="3">
-        <v>70305</v>
+        <v>51846</v>
       </c>
       <c r="C32" s="3">
-        <v>-12339</v>
+        <v>-32794</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="49"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="32" t="s">
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="33"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="29" t="s">
+      <c r="F35" s="22"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I35" s="30"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="32" t="s">
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L35" s="33"/>
-      <c r="M35" s="34"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="23"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="F36" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="G36" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="19" t="s">
+      <c r="H36" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I36" s="19" t="s">
+      <c r="I36" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J36" s="19" t="s">
+      <c r="J36" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K36" s="20" t="s">
+      <c r="K36" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L36" s="20" t="s">
+      <c r="L36" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M36" s="20" t="s">
+      <c r="M36" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2224,7 +2265,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
@@ -2232,31 +2273,31 @@
       <c r="D37" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="4">
-        <v>94</v>
-      </c>
-      <c r="F37" s="4">
-        <v>-2</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H37" s="6">
-        <v>0</v>
-      </c>
-      <c r="I37" s="6">
-        <v>0</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="4">
-        <v>0</v>
-      </c>
-      <c r="L37" s="4">
-        <v>0</v>
-      </c>
-      <c r="M37" s="4" t="s">
+      <c r="E37" s="40">
+        <v>95</v>
+      </c>
+      <c r="F37" s="40">
+        <v>-1</v>
+      </c>
+      <c r="G37" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="40">
+        <v>0</v>
+      </c>
+      <c r="L37" s="40">
+        <v>0</v>
+      </c>
+      <c r="M37" s="40" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2265,81 +2306,81 @@
         <v>34</v>
       </c>
       <c r="B38" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C38" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="4">
-        <v>0</v>
-      </c>
-      <c r="F38" s="4">
-        <v>0</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="6">
-        <v>0</v>
-      </c>
-      <c r="I38" s="6">
-        <v>0</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>54</v>
+      <c r="E38" s="40">
+        <v>0</v>
+      </c>
+      <c r="F38" s="40">
+        <v>0</v>
+      </c>
+      <c r="G38" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="40">
+        <v>0</v>
+      </c>
+      <c r="L38" s="40">
+        <v>0</v>
+      </c>
+      <c r="M38" s="40" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>35</v>
+      <c r="B39" s="3">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H39" s="6">
-        <v>0</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>54</v>
+        <v>11</v>
+      </c>
+      <c r="E39" s="40">
+        <v>0</v>
+      </c>
+      <c r="F39" s="40">
+        <v>0</v>
+      </c>
+      <c r="G39" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="40">
+        <v>0</v>
+      </c>
+      <c r="L39" s="40">
+        <v>0</v>
+      </c>
+      <c r="M39" s="40" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2347,40 +2388,40 @@
         <v>37</v>
       </c>
       <c r="B40" s="3">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C40" s="3">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="4">
-        <v>222</v>
-      </c>
-      <c r="F40" s="4">
-        <v>-3</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H40" s="6">
+        <v>56</v>
+      </c>
+      <c r="E40" s="40">
+        <v>204</v>
+      </c>
+      <c r="F40" s="40">
+        <v>-11</v>
+      </c>
+      <c r="G40" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="3">
         <v>1</v>
       </c>
-      <c r="I40" s="6">
-        <v>-99</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K40" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="L40" s="4">
-        <v>-43.99</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>53</v>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="40">
+        <v>0</v>
+      </c>
+      <c r="L40" s="40">
+        <v>-0.47</v>
+      </c>
+      <c r="M40" s="40" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2388,39 +2429,39 @@
         <v>38</v>
       </c>
       <c r="B41" s="3">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C41" s="3">
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="4">
+        <v>11</v>
+      </c>
+      <c r="E41" s="40">
         <v>4</v>
       </c>
-      <c r="F41" s="4">
-        <v>0</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" s="6">
-        <v>0</v>
-      </c>
-      <c r="I41" s="6">
-        <v>0</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="4">
-        <v>0</v>
-      </c>
-      <c r="L41" s="4">
-        <v>0</v>
-      </c>
-      <c r="M41" s="4" t="s">
+      <c r="F41" s="40">
+        <v>0</v>
+      </c>
+      <c r="G41" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="40">
+        <v>0</v>
+      </c>
+      <c r="L41" s="40">
+        <v>0</v>
+      </c>
+      <c r="M41" s="40" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2429,39 +2470,39 @@
         <v>39</v>
       </c>
       <c r="B42" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" s="3">
+        <v>-2</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="40">
+        <v>21</v>
+      </c>
+      <c r="F42" s="40">
         <v>-1</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="4">
-        <v>21</v>
-      </c>
-      <c r="F42" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H42" s="6">
-        <v>0</v>
-      </c>
-      <c r="I42" s="6">
-        <v>0</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="4">
-        <v>0</v>
-      </c>
-      <c r="L42" s="4">
-        <v>0</v>
-      </c>
-      <c r="M42" s="4" t="s">
+      <c r="G42" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="40">
+        <v>0</v>
+      </c>
+      <c r="L42" s="40">
+        <v>0</v>
+      </c>
+      <c r="M42" s="40" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2470,39 +2511,39 @@
         <v>40</v>
       </c>
       <c r="B43" s="3">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="C43" s="3">
-        <v>-94</v>
+        <v>35</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="4">
+        <v>56</v>
+      </c>
+      <c r="E43" s="40">
         <v>26</v>
       </c>
-      <c r="F43" s="4">
-        <v>0</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" s="6">
-        <v>0</v>
-      </c>
-      <c r="I43" s="6">
-        <v>0</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="4">
-        <v>0</v>
-      </c>
-      <c r="L43" s="4">
-        <v>0</v>
-      </c>
-      <c r="M43" s="4" t="s">
+      <c r="F43" s="40">
+        <v>-1</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="40">
+        <v>0</v>
+      </c>
+      <c r="L43" s="40">
+        <v>0</v>
+      </c>
+      <c r="M43" s="40" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2511,40 +2552,40 @@
         <v>41</v>
       </c>
       <c r="B44" s="3">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C44" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="4">
-        <v>248</v>
-      </c>
-      <c r="F44" s="4">
-        <v>0</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44" s="6">
+        <v>11</v>
+      </c>
+      <c r="E44" s="40">
+        <v>251</v>
+      </c>
+      <c r="F44" s="40">
         <v>1</v>
       </c>
-      <c r="I44" s="6">
-        <v>-99</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K44" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="L44" s="4">
-        <v>-39.92</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>53</v>
+      <c r="G44" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="40">
+        <v>0</v>
+      </c>
+      <c r="L44" s="40">
+        <v>-0.4</v>
+      </c>
+      <c r="M44" s="40" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2552,39 +2593,39 @@
         <v>42</v>
       </c>
       <c r="B45" s="3">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="C45" s="3">
-        <v>-158</v>
+        <v>36</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" s="4">
-        <v>2</v>
-      </c>
-      <c r="F45" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H45" s="6">
-        <v>0</v>
-      </c>
-      <c r="I45" s="6">
-        <v>0</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="4">
-        <v>0</v>
-      </c>
-      <c r="L45" s="4">
-        <v>0</v>
-      </c>
-      <c r="M45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="40">
+        <v>3</v>
+      </c>
+      <c r="F45" s="40">
+        <v>0</v>
+      </c>
+      <c r="G45" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="40">
+        <v>0</v>
+      </c>
+      <c r="L45" s="40">
+        <v>0</v>
+      </c>
+      <c r="M45" s="40" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2593,39 +2634,39 @@
         <v>43</v>
       </c>
       <c r="B46" s="3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C46" s="3">
-        <v>5</v>
+        <v>-8</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="40">
         <v>66</v>
       </c>
-      <c r="F46" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H46" s="6">
-        <v>0</v>
-      </c>
-      <c r="I46" s="6">
-        <v>0</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="4">
-        <v>0</v>
-      </c>
-      <c r="L46" s="4">
-        <v>0</v>
-      </c>
-      <c r="M46" s="4" t="s">
+      <c r="F46" s="40">
+        <v>-3</v>
+      </c>
+      <c r="G46" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="40">
+        <v>0</v>
+      </c>
+      <c r="L46" s="40">
+        <v>0</v>
+      </c>
+      <c r="M46" s="40" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2634,80 +2675,80 @@
         <v>44</v>
       </c>
       <c r="B47" s="3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" s="3">
-        <v>1</v>
+        <v>-8</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="4">
-        <v>49</v>
-      </c>
-      <c r="F47" s="4">
-        <v>0</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="6">
-        <v>0</v>
-      </c>
-      <c r="I47" s="6">
-        <v>0</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="4">
-        <v>0</v>
-      </c>
-      <c r="L47" s="4">
-        <v>0</v>
-      </c>
-      <c r="M47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="40">
+        <v>48</v>
+      </c>
+      <c r="F47" s="40">
+        <v>-3</v>
+      </c>
+      <c r="G47" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="40">
+        <v>0</v>
+      </c>
+      <c r="L47" s="40">
+        <v>0</v>
+      </c>
+      <c r="M47" s="40" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B48" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="40">
         <v>4</v>
       </c>
-      <c r="F48" s="4">
-        <v>0</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="6">
-        <v>0</v>
-      </c>
-      <c r="I48" s="6">
+      <c r="F48" s="40">
+        <v>0</v>
+      </c>
+      <c r="G48" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
         <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K48" s="4">
-        <v>0</v>
-      </c>
-      <c r="L48" s="4">
-        <v>0</v>
-      </c>
-      <c r="M48" s="4" t="s">
+      <c r="K48" s="40">
+        <v>0</v>
+      </c>
+      <c r="L48" s="40">
+        <v>0</v>
+      </c>
+      <c r="M48" s="40" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2722,34 +2763,34 @@
         <v>35</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H49" s="6">
-        <v>0</v>
-      </c>
-      <c r="I49" s="6" t="s">
+      <c r="G49" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J49" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K49" s="4" t="s">
+      <c r="J49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K49" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="L49" s="4" t="s">
+      <c r="L49" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="M49" s="4" t="s">
-        <v>54</v>
+      <c r="M49" s="40" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2765,131 +2806,131 @@
       <c r="D50" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="40">
         <v>31</v>
       </c>
-      <c r="F50" s="4">
-        <v>0</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" s="6">
-        <v>0</v>
-      </c>
-      <c r="I50" s="6">
-        <v>0</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="4">
-        <v>0</v>
-      </c>
-      <c r="L50" s="4">
-        <v>0</v>
-      </c>
-      <c r="M50" s="4" t="s">
+      <c r="F50" s="40">
+        <v>-1</v>
+      </c>
+      <c r="G50" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="40">
+        <v>0</v>
+      </c>
+      <c r="L50" s="40">
+        <v>0</v>
+      </c>
+      <c r="M50" s="40" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="5">
+        <v>183</v>
+      </c>
+      <c r="C51" s="5">
+        <v>183</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="41">
+        <v>0</v>
+      </c>
+      <c r="F51" s="41">
+        <v>0</v>
+      </c>
+      <c r="G51" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0</v>
+      </c>
+      <c r="I51" s="5">
+        <v>0</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H51" s="14">
-        <v>0</v>
-      </c>
-      <c r="I51" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J51" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K51" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="L51" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M51" s="13" t="s">
-        <v>54</v>
+      <c r="L51" s="41">
+        <v>0</v>
+      </c>
+      <c r="M51" s="41" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="28"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="17"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F53" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H53" s="17">
-        <v>0</v>
-      </c>
-      <c r="I53" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J53" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="K53" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="L53" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="M53" s="18" t="s">
-        <v>54</v>
+      <c r="B53" s="8">
+        <v>239</v>
+      </c>
+      <c r="C53" s="8">
+        <v>93</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="42">
+        <v>5</v>
+      </c>
+      <c r="F53" s="42">
+        <v>0</v>
+      </c>
+      <c r="G53" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="8">
+        <v>0</v>
+      </c>
+      <c r="I53" s="8">
+        <v>0</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="42">
+        <v>0</v>
+      </c>
+      <c r="L53" s="42">
+        <v>0</v>
+      </c>
+      <c r="M53" s="42" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2897,21 +2938,21 @@
         <v>50</v>
       </c>
       <c r="B54" s="3">
-        <v>163</v>
+        <v>314</v>
       </c>
       <c r="C54" s="3">
-        <v>-16</v>
+        <v>174</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E54" s="4">
+        <v>56</v>
+      </c>
+      <c r="E54" s="40">
         <v>5</v>
       </c>
-      <c r="F54" s="4">
-        <v>0</v>
-      </c>
-      <c r="G54" s="4" t="s">
+      <c r="F54" s="40">
+        <v>0</v>
+      </c>
+      <c r="G54" s="40" t="s">
         <v>11</v>
       </c>
       <c r="H54" s="3">
@@ -2923,13 +2964,13 @@
       <c r="J54" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K54" s="4">
-        <v>0</v>
-      </c>
-      <c r="L54" s="4">
-        <v>0</v>
-      </c>
-      <c r="M54" s="4" t="s">
+      <c r="K54" s="40">
+        <v>0</v>
+      </c>
+      <c r="L54" s="40">
+        <v>0</v>
+      </c>
+      <c r="M54" s="40" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2938,21 +2979,21 @@
         <v>51</v>
       </c>
       <c r="B55" s="3">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C55" s="3">
-        <v>-5</v>
+        <v>8</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E55" s="4">
+        <v>11</v>
+      </c>
+      <c r="E55" s="40">
         <v>4</v>
       </c>
-      <c r="F55" s="4">
-        <v>0</v>
-      </c>
-      <c r="G55" s="4" t="s">
+      <c r="F55" s="40">
+        <v>0</v>
+      </c>
+      <c r="G55" s="40" t="s">
         <v>11</v>
       </c>
       <c r="H55" s="3">
@@ -2964,17 +3005,18 @@
       <c r="J55" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K55" s="4">
-        <v>0</v>
-      </c>
-      <c r="L55" s="4">
-        <v>0</v>
-      </c>
-      <c r="M55" s="4" t="s">
+      <c r="K55" s="40">
+        <v>0</v>
+      </c>
+      <c r="L55" s="40">
+        <v>0</v>
+      </c>
+      <c r="M55" s="40" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>